--- a/ValueSet-hiv-g-de14.xlsx
+++ b/ValueSet-hiv-g-de14.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:24:27+00:00</t>
+    <t>2024-04-30T19:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-g-de14.xlsx
+++ b/ValueSet-hiv-g-de14.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:50:03+00:00</t>
+    <t>2024-04-30T19:53:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-g-de14.xlsx
+++ b/ValueSet-hiv-g-de14.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:53:06+00:00</t>
+    <t>2024-05-15T17:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-g-de14.xlsx
+++ b/ValueSet-hiv-g-de14.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T17:51:55+00:00</t>
+    <t>2024-06-06T18:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-g-de14.xlsx
+++ b/ValueSet-hiv-g-de14.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T18:10:14+00:00</t>
+    <t>2024-06-10T14:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
